--- a/cm/Unitfolder/Unit_interface.xlsx
+++ b/cm/Unitfolder/Unit_interface.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4844B-07BE-418E-BE2C-C3824E50A4BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
     <sheet name="OUT" sheetId="2" r:id="rId2"/>
     <sheet name="MP" sheetId="3" r:id="rId3"/>
     <sheet name="CAL" sheetId="4" r:id="rId4"/>
-    <sheet name="Const" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>Typedef</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>DefaultValue</t>
@@ -460,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -489,10 +485,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -542,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -594,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -616,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -722,45 +718,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cm/Unitfolder/Unit_interface.xlsx
+++ b/cm/Unitfolder/Unit_interface.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4844B-07BE-418E-BE2C-C3824E50A4BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9CF5F-8ED6-4D1D-96DE-BC1B4FE3FCE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
     <sheet name="OUT" sheetId="2" r:id="rId2"/>
     <sheet name="MP" sheetId="3" r:id="rId3"/>
     <sheet name="CAL" sheetId="4" r:id="rId4"/>
+    <sheet name="Const" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +68,9 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -612,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -718,4 +722,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9B753-5B04-4B74-9EE0-9C598EFE9C9F}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>